--- a/recipeCreationCDCDMode.xlsx
+++ b/recipeCreationCDCDMode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lattice\Desktop\ss\RecipeCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF50792A-1DFD-4E65-9B98-F7AF23DE6047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73268C7-C064-4170-8C25-E0E1DD444051}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="753" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="753" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModeCDCD0" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6149" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6144" uniqueCount="248">
   <si>
     <t>UC_ID</t>
   </si>
@@ -545,15 +545,6 @@
     <t>tubingSize16</t>
   </si>
   <si>
-    <t>Enter permeate with endpoint value</t>
-  </si>
-  <si>
-    <t>Selecet the main pump drop down</t>
-  </si>
-  <si>
-    <t>Selecet the KR2i main pump</t>
-  </si>
-  <si>
     <t>Click if user wants to go to the step 2</t>
   </si>
   <si>
@@ -668,15 +659,6 @@
     <t>KrosFlo FS 500</t>
   </si>
   <si>
-    <t>toastMessage</t>
-  </si>
-  <si>
-    <t>captureMessage</t>
-  </si>
-  <si>
-    <t>Recipe created</t>
-  </si>
-  <si>
     <t>selectEndpointTypeC1</t>
   </si>
   <si>
@@ -702,9 +684,6 @@
   </si>
   <si>
     <t>`1.5</t>
-  </si>
-  <si>
-    <t>Click on the CDC Mode</t>
   </si>
   <si>
     <t>KR2i_CDCD_PW</t>
@@ -774,6 +753,39 @@
   </si>
   <si>
     <t>selectKR12</t>
+  </si>
+  <si>
+    <t>Click on the concentration factor with endpoint</t>
+  </si>
+  <si>
+    <t>Enter enter concentration factor endpoint value</t>
+  </si>
+  <si>
+    <t>Click on the diafiltration volume endpoint</t>
+  </si>
+  <si>
+    <t>Enter permeate weight endpoint value</t>
+  </si>
+  <si>
+    <t>Click on UV endpoint</t>
+  </si>
+  <si>
+    <t>Enter UV endpoint value</t>
+  </si>
+  <si>
+    <t>Select the main pump drop down</t>
+  </si>
+  <si>
+    <t>Select the KR2i main pump</t>
+  </si>
+  <si>
+    <t>Click on the CDCD Mode</t>
+  </si>
+  <si>
+    <t>Enter the diafiltration volume endpoint value</t>
+  </si>
+  <si>
+    <t>Enter diafiltration volume endpoint value</t>
   </si>
 </sst>
 </file>
@@ -1316,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06968273-B5FF-4DDF-9616-03EB7EEDE40B}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD66"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1376,7 +1388,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H2" s="10"/>
     </row>
@@ -1400,7 +1412,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H3" s="7"/>
     </row>
@@ -1424,7 +1436,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1448,7 +1460,7 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -1472,7 +1484,7 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7"/>
     </row>
@@ -1581,7 +1593,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -1647,13 +1659,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -1671,7 +1683,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1680,7 +1692,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -1767,7 +1779,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -1776,7 +1788,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>22</v>
@@ -1791,7 +1803,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -1800,7 +1812,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>22</v>
@@ -1815,7 +1827,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -1824,7 +1836,7 @@
         <v>120</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -1839,7 +1851,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1848,7 +1860,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>22</v>
@@ -1863,7 +1875,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -1872,7 +1884,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>22</v>
@@ -1887,7 +1899,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -1896,7 +1908,7 @@
         <v>120</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -1911,7 +1923,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -1920,7 +1932,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>22</v>
@@ -1935,7 +1947,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -1944,7 +1956,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>22</v>
@@ -1959,16 +1971,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -1983,7 +1995,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -1992,7 +2004,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>22</v>
@@ -2007,7 +2019,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -2016,7 +2028,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>22</v>
@@ -2031,7 +2043,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -2040,7 +2052,7 @@
         <v>120</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>13</v>
@@ -2103,7 +2115,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -2127,7 +2139,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -2293,7 +2305,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -2317,7 +2329,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
@@ -2409,7 +2421,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -2432,7 +2444,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -2501,7 +2513,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -2616,7 +2628,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>21</v>
@@ -2639,7 +2651,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
@@ -2754,7 +2766,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
@@ -2763,7 +2775,7 @@
         <v>82</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -2777,7 +2789,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -2786,7 +2798,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -2794,7 +2806,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -2817,16 +2829,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
         <v>165</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>13</v>
@@ -2840,7 +2852,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -2849,7 +2861,7 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>13</v>
@@ -2857,7 +2869,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
@@ -3041,7 +3053,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D74" t="s">
         <v>165</v>
@@ -3064,7 +3076,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
         <v>165</v>
@@ -3271,7 +3283,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D84" t="s">
         <v>21</v>
@@ -3294,7 +3306,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
         <v>21</v>
@@ -3386,7 +3398,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
@@ -3409,7 +3421,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
@@ -3432,7 +3444,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
@@ -3651,31 +3663,11 @@
         <v>115</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A101">
-        <v>1.4</v>
-      </c>
-      <c r="B101">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C101" t="s">
-        <v>116</v>
-      </c>
-      <c r="D101" t="s">
-        <v>209</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F101" t="s">
-        <v>208</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="G101" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3691,8 +3683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353F7C62-A3A7-4A3F-974E-A86CAAC2D3EE}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3956,7 +3948,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -4022,13 +4014,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -4046,7 +4038,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -4055,7 +4047,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -4142,7 +4134,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -4151,7 +4143,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>22</v>
@@ -4166,7 +4158,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -4175,7 +4167,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>22</v>
@@ -4190,7 +4182,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -4199,7 +4191,7 @@
         <v>120</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -4214,7 +4206,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -4223,7 +4215,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>22</v>
@@ -4238,7 +4230,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -4247,7 +4239,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>22</v>
@@ -4262,7 +4254,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -4271,7 +4263,7 @@
         <v>120</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -4286,7 +4278,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -4295,7 +4287,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>22</v>
@@ -4310,7 +4302,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -4319,7 +4311,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>22</v>
@@ -4334,16 +4326,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -4358,7 +4350,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -4367,7 +4359,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>22</v>
@@ -4382,7 +4374,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -4391,7 +4383,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>22</v>
@@ -4406,7 +4398,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -4415,7 +4407,7 @@
         <v>120</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>13</v>
@@ -4478,7 +4470,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -4502,16 +4494,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>13</v>
@@ -4668,7 +4660,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -4692,16 +4684,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>22</v>
@@ -4784,7 +4776,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -4807,7 +4799,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -4876,7 +4868,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -4905,10 +4897,10 @@
         <v>21</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>13</v>
@@ -4934,7 +4926,7 @@
         <v>77</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -4991,7 +4983,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>21</v>
@@ -5014,16 +5006,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F56" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>13</v>
@@ -5129,7 +5121,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
@@ -5138,7 +5130,7 @@
         <v>82</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -5152,7 +5144,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -5161,7 +5153,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -5175,16 +5167,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>13</v>
@@ -5198,16 +5190,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
         <v>165</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>13</v>
@@ -5221,7 +5213,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -5230,7 +5222,7 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>13</v>
@@ -5244,7 +5236,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
@@ -5428,7 +5420,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D74" t="s">
         <v>165</v>
@@ -5451,7 +5443,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
         <v>165</v>
@@ -5658,7 +5650,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D84" t="s">
         <v>21</v>
@@ -5681,16 +5673,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
         <v>21</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F85" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>13</v>
@@ -5773,7 +5765,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
@@ -5796,7 +5788,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
@@ -5819,7 +5811,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
@@ -6038,7 +6030,7 @@
         <v>115</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -6054,7 +6046,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6318,7 +6310,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -6384,13 +6376,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -6408,7 +6400,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -6417,7 +6409,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -6504,7 +6496,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -6513,7 +6505,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -6528,7 +6520,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -6537,7 +6529,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
@@ -6552,16 +6544,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -6576,7 +6568,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -6585,7 +6577,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>13</v>
@@ -6600,7 +6592,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -6609,7 +6601,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>13</v>
@@ -6624,7 +6616,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -6633,7 +6625,7 @@
         <v>68</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -6648,7 +6640,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -6657,7 +6649,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -6672,7 +6664,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -6681,7 +6673,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
@@ -6696,16 +6688,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -6720,7 +6712,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -6729,7 +6721,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>13</v>
@@ -6744,7 +6736,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -6753,7 +6745,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>13</v>
@@ -6768,16 +6760,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>13</v>
@@ -6840,7 +6832,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -6864,16 +6856,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>13</v>
@@ -7030,7 +7022,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -7054,16 +7046,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>22</v>
@@ -7146,7 +7138,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -7169,7 +7161,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -7238,7 +7230,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -7267,10 +7259,10 @@
         <v>21</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>13</v>
@@ -7353,7 +7345,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>21</v>
@@ -7376,16 +7368,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F56" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>13</v>
@@ -7491,7 +7483,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
@@ -7500,7 +7492,7 @@
         <v>82</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -7514,7 +7506,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -7523,7 +7515,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -7537,16 +7529,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>13</v>
@@ -7560,16 +7552,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
         <v>165</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>13</v>
@@ -7583,7 +7575,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -7592,7 +7584,7 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>13</v>
@@ -7606,7 +7598,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
@@ -7790,7 +7782,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D74" t="s">
         <v>165</v>
@@ -7813,7 +7805,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
         <v>165</v>
@@ -8020,7 +8012,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D84" t="s">
         <v>21</v>
@@ -8043,16 +8035,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
         <v>21</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F85" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>13</v>
@@ -8135,7 +8127,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
@@ -8158,7 +8150,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
@@ -8181,7 +8173,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
@@ -8400,7 +8392,7 @@
         <v>115</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -8416,7 +8408,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8680,7 +8672,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -8746,13 +8738,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -8770,7 +8762,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -8779,7 +8771,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -8866,7 +8858,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -8875,7 +8867,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -8890,7 +8882,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -8899,7 +8891,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
@@ -8914,16 +8906,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -8938,7 +8930,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -8947,7 +8939,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>13</v>
@@ -8962,7 +8954,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -8971,7 +8963,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>13</v>
@@ -8986,16 +8978,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -9010,7 +9002,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -9019,7 +9011,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -9034,7 +9026,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -9043,7 +9035,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
@@ -9058,16 +9050,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -9082,7 +9074,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -9091,7 +9083,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>13</v>
@@ -9106,7 +9098,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -9115,7 +9107,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>13</v>
@@ -9130,16 +9122,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>13</v>
@@ -9202,7 +9194,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -9226,16 +9218,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>13</v>
@@ -9392,7 +9384,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -9416,16 +9408,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>22</v>
@@ -9508,7 +9500,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -9531,7 +9523,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -9600,7 +9592,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -9629,10 +9621,10 @@
         <v>21</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>13</v>
@@ -9715,7 +9707,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>21</v>
@@ -9738,16 +9730,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F56" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>13</v>
@@ -9853,7 +9845,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
@@ -9862,7 +9854,7 @@
         <v>82</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -9876,7 +9868,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -9885,7 +9877,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -9899,16 +9891,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>13</v>
@@ -9922,16 +9914,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
         <v>165</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>13</v>
@@ -9945,7 +9937,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -9954,7 +9946,7 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>13</v>
@@ -9968,7 +9960,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
@@ -10152,7 +10144,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D74" t="s">
         <v>165</v>
@@ -10175,7 +10167,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
         <v>165</v>
@@ -10382,7 +10374,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D84" t="s">
         <v>21</v>
@@ -10405,16 +10397,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
         <v>21</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F85" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>13</v>
@@ -10497,7 +10489,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
@@ -10520,7 +10512,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
@@ -10543,7 +10535,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
@@ -10762,7 +10754,7 @@
         <v>115</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -10778,7 +10770,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD30"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11042,7 +11034,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -11108,13 +11100,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -11132,7 +11124,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -11141,7 +11133,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -11228,7 +11220,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -11237,7 +11229,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -11252,7 +11244,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -11261,7 +11253,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
@@ -11276,16 +11268,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -11300,7 +11292,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -11309,7 +11301,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>13</v>
@@ -11324,7 +11316,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -11333,7 +11325,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>13</v>
@@ -11348,7 +11340,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -11357,7 +11349,7 @@
         <v>68</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -11372,7 +11364,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -11381,7 +11373,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -11396,7 +11388,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -11405,7 +11397,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
@@ -11420,16 +11412,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -11444,7 +11436,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -11453,7 +11445,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>13</v>
@@ -11468,7 +11460,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -11477,7 +11469,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>13</v>
@@ -11492,16 +11484,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>13</v>
@@ -11564,7 +11556,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -11588,7 +11580,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -11754,7 +11746,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -11778,7 +11770,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
@@ -11870,7 +11862,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -11893,7 +11885,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -11962,7 +11954,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -12077,7 +12069,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>21</v>
@@ -12100,7 +12092,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
@@ -12215,7 +12207,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
@@ -12224,7 +12216,7 @@
         <v>82</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -12238,7 +12230,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -12247,7 +12239,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -12255,7 +12247,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -12278,16 +12270,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
         <v>165</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>13</v>
@@ -12301,7 +12293,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -12310,7 +12302,7 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>13</v>
@@ -12318,7 +12310,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
@@ -12509,7 +12501,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D74" s="21" t="s">
         <v>165</v>
@@ -12533,7 +12525,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D75" s="21" t="s">
         <v>165</v>
@@ -12749,7 +12741,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D84" s="21" t="s">
         <v>21</v>
@@ -12773,7 +12765,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
         <v>21</v>
@@ -12865,7 +12857,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
@@ -12888,7 +12880,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
@@ -12911,7 +12903,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
@@ -13130,7 +13122,7 @@
         <v>115</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -13146,8 +13138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC32AE66-08C9-4B02-8286-CAADD498358D}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD30"/>
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13411,7 +13403,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -13477,13 +13469,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -13501,7 +13493,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -13510,7 +13502,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -13597,7 +13589,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -13606,7 +13598,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -13621,7 +13613,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -13630,7 +13622,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
@@ -13645,16 +13637,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -13669,7 +13661,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -13678,7 +13670,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>13</v>
@@ -13693,7 +13685,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -13702,7 +13694,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>13</v>
@@ -13717,16 +13709,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -13741,7 +13733,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -13750,7 +13742,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -13765,7 +13757,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -13774,7 +13766,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
@@ -13789,16 +13781,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -13813,7 +13805,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -13822,7 +13814,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>13</v>
@@ -13837,7 +13829,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -13846,7 +13838,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>13</v>
@@ -13861,16 +13853,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>13</v>
@@ -13933,7 +13925,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -13957,7 +13949,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -14123,7 +14115,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -14147,7 +14139,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
@@ -14239,7 +14231,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -14262,7 +14254,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -14331,7 +14323,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -14446,7 +14438,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>21</v>
@@ -14469,7 +14461,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
@@ -14584,7 +14576,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
@@ -14593,7 +14585,7 @@
         <v>82</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -14607,7 +14599,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -14616,7 +14608,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -14624,7 +14616,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -14647,16 +14639,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
         <v>165</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>13</v>
@@ -14670,7 +14662,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -14679,7 +14671,7 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>13</v>
@@ -14687,7 +14679,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
@@ -14871,7 +14863,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D74" t="s">
         <v>165</v>
@@ -14894,7 +14886,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
         <v>165</v>
@@ -15101,7 +15093,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D84" t="s">
         <v>21</v>
@@ -15124,7 +15116,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
         <v>21</v>
@@ -15216,7 +15208,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
@@ -15239,7 +15231,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
@@ -15262,7 +15254,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
@@ -15481,7 +15473,7 @@
         <v>115</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -15496,8 +15488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72D330A-C15D-4736-9D57-120BD7CA4F73}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD66"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15761,7 +15753,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -15827,13 +15819,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -15851,7 +15843,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -15860,7 +15852,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -15947,7 +15939,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -15956,7 +15948,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>22</v>
@@ -15971,7 +15963,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -15980,7 +15972,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>22</v>
@@ -15995,7 +15987,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -16004,7 +15996,7 @@
         <v>120</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -16019,7 +16011,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -16028,7 +16020,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>22</v>
@@ -16043,7 +16035,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -16052,7 +16044,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>22</v>
@@ -16067,7 +16059,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -16076,7 +16068,7 @@
         <v>120</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -16091,7 +16083,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -16100,7 +16092,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>22</v>
@@ -16115,7 +16107,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -16124,7 +16116,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>22</v>
@@ -16139,16 +16131,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -16163,7 +16155,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -16172,7 +16164,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>22</v>
@@ -16187,7 +16179,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -16196,7 +16188,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>22</v>
@@ -16211,7 +16203,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -16220,7 +16212,7 @@
         <v>120</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>13</v>
@@ -16283,7 +16275,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -16307,7 +16299,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -16316,7 +16308,7 @@
         <v>87</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>13</v>
@@ -16473,7 +16465,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -16497,16 +16489,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>13</v>
@@ -16589,7 +16581,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -16612,7 +16604,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -16681,7 +16673,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -16710,10 +16702,10 @@
         <v>21</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>13</v>
@@ -16739,7 +16731,7 @@
         <v>77</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
@@ -16796,7 +16788,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>21</v>
@@ -16819,16 +16811,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F56" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>13</v>
@@ -16934,7 +16926,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
@@ -16943,7 +16935,7 @@
         <v>82</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -16957,7 +16949,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -16966,7 +16958,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -16980,16 +16972,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>13</v>
@@ -17003,16 +16995,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
         <v>165</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>13</v>
@@ -17026,7 +17018,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -17035,7 +17027,7 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>13</v>
@@ -17049,7 +17041,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
@@ -17233,7 +17225,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D74" t="s">
         <v>165</v>
@@ -17256,7 +17248,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
         <v>165</v>
@@ -17463,7 +17455,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D84" t="s">
         <v>21</v>
@@ -17486,16 +17478,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
         <v>21</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F85" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>13</v>
@@ -17578,7 +17570,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
@@ -17601,7 +17593,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
@@ -17624,7 +17616,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
@@ -17843,7 +17835,7 @@
         <v>115</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -17859,7 +17851,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18123,7 +18115,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -18189,13 +18181,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -18213,7 +18205,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -18222,7 +18214,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -18309,7 +18301,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -18318,7 +18310,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -18333,7 +18325,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -18342,7 +18334,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
@@ -18357,16 +18349,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -18381,7 +18373,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -18390,7 +18382,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>13</v>
@@ -18405,7 +18397,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -18414,7 +18406,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>13</v>
@@ -18429,7 +18421,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -18438,7 +18430,7 @@
         <v>68</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -18453,7 +18445,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -18462,7 +18454,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -18477,7 +18469,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -18486,7 +18478,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
@@ -18501,16 +18493,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -18525,7 +18517,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -18534,7 +18526,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>13</v>
@@ -18549,7 +18541,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -18558,7 +18550,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>13</v>
@@ -18573,16 +18565,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>13</v>
@@ -18645,7 +18637,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -18669,7 +18661,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -18678,7 +18670,7 @@
         <v>87</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>13</v>
@@ -18835,7 +18827,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -18859,16 +18851,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>13</v>
@@ -18951,7 +18943,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -18974,7 +18966,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -19043,7 +19035,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -19072,10 +19064,10 @@
         <v>21</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>13</v>
@@ -19158,7 +19150,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>21</v>
@@ -19181,16 +19173,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F56" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>22</v>
@@ -19296,7 +19288,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
@@ -19305,7 +19297,7 @@
         <v>82</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -19319,7 +19311,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -19328,7 +19320,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -19342,16 +19334,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>13</v>
@@ -19365,16 +19357,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
         <v>165</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>13</v>
@@ -19388,7 +19380,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -19397,7 +19389,7 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>13</v>
@@ -19411,7 +19403,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
@@ -19595,7 +19587,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D74" t="s">
         <v>165</v>
@@ -19618,7 +19610,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
         <v>165</v>
@@ -19825,7 +19817,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D84" t="s">
         <v>21</v>
@@ -19848,16 +19840,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
         <v>21</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F85" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>13</v>
@@ -19940,7 +19932,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
@@ -19963,7 +19955,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
@@ -19986,7 +19978,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
@@ -20205,7 +20197,7 @@
         <v>115</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -20220,8 +20212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8BB3A3-EDA0-4D0A-BAA2-47141E6EFECD}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20485,7 +20477,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -20551,13 +20543,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -20575,7 +20567,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -20584,7 +20576,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -20671,7 +20663,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -20680,7 +20672,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -20695,7 +20687,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -20704,7 +20696,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
@@ -20719,16 +20711,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -20743,7 +20735,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -20752,7 +20744,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>13</v>
@@ -20767,7 +20759,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -20776,7 +20768,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>13</v>
@@ -20791,16 +20783,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -20815,7 +20807,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -20824,7 +20816,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -20839,7 +20831,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -20848,7 +20840,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
@@ -20863,16 +20855,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -20887,7 +20879,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -20896,7 +20888,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>13</v>
@@ -20911,7 +20903,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -20920,7 +20912,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>13</v>
@@ -20935,16 +20927,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>13</v>
@@ -21007,7 +20999,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -21031,7 +21023,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -21040,7 +21032,7 @@
         <v>87</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>13</v>
@@ -21197,7 +21189,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -21221,16 +21213,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>13</v>
@@ -21313,7 +21305,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -21336,7 +21328,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -21405,7 +21397,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -21434,10 +21426,10 @@
         <v>21</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>13</v>
@@ -21520,7 +21512,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>21</v>
@@ -21543,16 +21535,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F56" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>22</v>
@@ -21658,7 +21650,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
@@ -21667,7 +21659,7 @@
         <v>82</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -21681,7 +21673,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -21690,7 +21682,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -21704,16 +21696,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>13</v>
@@ -21727,16 +21719,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
         <v>165</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>13</v>
@@ -21750,7 +21742,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -21759,7 +21751,7 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>13</v>
@@ -21773,7 +21765,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
@@ -21957,7 +21949,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D74" t="s">
         <v>165</v>
@@ -21980,7 +21972,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
         <v>165</v>
@@ -22187,7 +22179,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D84" t="s">
         <v>21</v>
@@ -22210,16 +22202,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
         <v>21</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F85" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>13</v>
@@ -22302,7 +22294,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
@@ -22325,7 +22317,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
@@ -22348,7 +22340,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
@@ -22567,7 +22559,7 @@
         <v>115</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -22582,8 +22574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E855714-9B39-4CC2-A9F7-DB85BBFA9633}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22847,7 +22839,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -22913,13 +22905,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -22937,7 +22929,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -22946,7 +22938,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -23033,7 +23025,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -23042,7 +23034,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>22</v>
@@ -23057,7 +23049,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -23066,7 +23058,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>22</v>
@@ -23081,7 +23073,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -23090,7 +23082,7 @@
         <v>120</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -23105,7 +23097,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -23114,7 +23106,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>22</v>
@@ -23129,7 +23121,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -23138,7 +23130,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>22</v>
@@ -23153,7 +23145,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -23162,7 +23154,7 @@
         <v>120</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -23177,7 +23169,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -23186,7 +23178,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>22</v>
@@ -23201,7 +23193,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -23210,7 +23202,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>22</v>
@@ -23225,16 +23217,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -23249,7 +23241,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -23258,7 +23250,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>22</v>
@@ -23273,7 +23265,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -23282,7 +23274,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>22</v>
@@ -23297,7 +23289,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -23306,7 +23298,7 @@
         <v>120</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>13</v>
@@ -23369,7 +23361,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -23393,16 +23385,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>13</v>
@@ -23559,7 +23551,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -23583,7 +23575,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
@@ -23675,7 +23667,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -23698,7 +23690,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -23767,7 +23759,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -23882,7 +23874,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>21</v>
@@ -23905,7 +23897,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
@@ -24020,7 +24012,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
@@ -24029,7 +24021,7 @@
         <v>82</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -24043,7 +24035,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -24052,7 +24044,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -24060,7 +24052,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -24083,16 +24075,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
         <v>165</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>13</v>
@@ -24106,7 +24098,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -24115,7 +24107,7 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>13</v>
@@ -24123,7 +24115,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
@@ -24307,7 +24299,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D74" t="s">
         <v>165</v>
@@ -24330,7 +24322,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
         <v>165</v>
@@ -24537,7 +24529,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D84" t="s">
         <v>21</v>
@@ -24560,7 +24552,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
         <v>21</v>
@@ -24652,7 +24644,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
@@ -24675,7 +24667,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
@@ -24698,7 +24690,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
@@ -24917,7 +24909,7 @@
         <v>115</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -24933,7 +24925,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD30"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25197,7 +25189,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -25263,13 +25255,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -25287,7 +25279,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -25296,7 +25288,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -25383,7 +25375,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -25392,7 +25384,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -25407,7 +25399,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -25416,7 +25408,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
@@ -25431,16 +25423,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -25455,7 +25447,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -25464,7 +25456,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>13</v>
@@ -25479,7 +25471,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -25488,7 +25480,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>13</v>
@@ -25503,7 +25495,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -25512,7 +25504,7 @@
         <v>68</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -25527,7 +25519,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -25536,7 +25528,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -25551,7 +25543,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -25560,7 +25552,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
@@ -25575,16 +25567,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -25599,7 +25591,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -25608,7 +25600,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>13</v>
@@ -25623,7 +25615,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -25632,7 +25624,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>13</v>
@@ -25647,16 +25639,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>13</v>
@@ -25719,7 +25711,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -25743,16 +25735,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>13</v>
@@ -25909,7 +25901,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -25933,7 +25925,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
@@ -26025,7 +26017,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -26048,7 +26040,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -26117,7 +26109,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -26232,7 +26224,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>21</v>
@@ -26255,7 +26247,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
@@ -26370,7 +26362,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
@@ -26379,7 +26371,7 @@
         <v>82</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -26393,7 +26385,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -26402,7 +26394,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -26410,7 +26402,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -26433,16 +26425,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
         <v>165</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>13</v>
@@ -26456,7 +26448,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -26465,7 +26457,7 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>13</v>
@@ -26473,7 +26465,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
@@ -26657,7 +26649,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D74" t="s">
         <v>165</v>
@@ -26680,7 +26672,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
         <v>165</v>
@@ -26887,7 +26879,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D84" t="s">
         <v>21</v>
@@ -26910,7 +26902,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
         <v>21</v>
@@ -27002,7 +26994,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
@@ -27025,7 +27017,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
@@ -27048,7 +27040,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
@@ -27267,7 +27259,7 @@
         <v>115</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -27283,7 +27275,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD30"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27547,7 +27539,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -27613,13 +27605,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>36</v>
@@ -27637,7 +27629,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -27646,7 +27638,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>13</v>
@@ -27733,7 +27725,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -27742,7 +27734,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>13</v>
@@ -27757,7 +27749,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -27766,7 +27758,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>13</v>
@@ -27781,16 +27773,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
@@ -27805,7 +27797,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -27814,7 +27806,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>13</v>
@@ -27829,7 +27821,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -27838,7 +27830,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>13</v>
@@ -27853,16 +27845,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>13</v>
@@ -27877,7 +27869,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -27886,7 +27878,7 @@
         <v>12</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>13</v>
@@ -27901,7 +27893,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -27910,7 +27902,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>13</v>
@@ -27925,16 +27917,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>13</v>
@@ -27949,7 +27941,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -27958,7 +27950,7 @@
         <v>12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>13</v>
@@ -27973,7 +27965,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -27982,7 +27974,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>13</v>
@@ -27997,16 +27989,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>13</v>
@@ -28069,7 +28061,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -28093,16 +28085,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>13</v>
@@ -28259,7 +28251,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -28283,7 +28275,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
@@ -28375,7 +28367,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -28398,7 +28390,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -28467,7 +28459,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -28582,7 +28574,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>21</v>
@@ -28605,7 +28597,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
@@ -28720,7 +28712,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D61" t="s">
         <v>165</v>
@@ -28729,7 +28721,7 @@
         <v>82</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>13</v>
@@ -28743,7 +28735,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -28752,7 +28744,7 @@
         <v>12</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>13</v>
@@ -28760,7 +28752,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>21</v>
@@ -28783,16 +28775,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D64" t="s">
         <v>165</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>13</v>
@@ -28806,7 +28798,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -28815,7 +28807,7 @@
         <v>12</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>13</v>
@@ -28823,7 +28815,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C66" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
@@ -29007,7 +28999,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D74" t="s">
         <v>165</v>
@@ -29030,7 +29022,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
         <v>165</v>
@@ -29237,7 +29229,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D84" t="s">
         <v>21</v>
@@ -29260,7 +29252,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D85" t="s">
         <v>21</v>
@@ -29352,7 +29344,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
@@ -29375,7 +29367,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
@@ -29398,7 +29390,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
         <v>21</v>
@@ -29617,7 +29609,7 @@
         <v>115</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
